--- a/KM5c_data/ODP_Site_846.xlsx
+++ b/KM5c_data/ODP_Site_846.xlsx
@@ -549,13 +549,13 @@
         </is>
       </c>
       <c r="P2">
-        <v>23.43501257</v>
+        <v>23.78</v>
       </c>
       <c r="Q2">
-        <v>2.298320759999999</v>
+        <v>1.95582495462023</v>
       </c>
       <c r="R2">
-        <v>2.067536669999999</v>
+        <v>1.72504086462023</v>
       </c>
       <c r="S2">
         <v>2.733333330000001</v>
